--- a/datos_fbref/CARTELERA_PROXIMOS_Serie_A.xlsx
+++ b/datos_fbref/CARTELERA_PROXIMOS_Serie_A.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L170"/>
+  <dimension ref="A1:L169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,34 +869,34 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20:45 (16:45)</t>
+          <t>15:00 (11:00)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mapei Stadium - Città del Tricolore</t>
+          <t>Allianz Stadium</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -925,24 +925,24 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15:00 (11:00)</t>
+          <t>18:00 (14:00)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Allianz Stadium</t>
+          <t>Stadio Comunale Ettore Giardiniero</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -971,24 +971,24 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18:00 (14:00)</t>
+          <t>20:45 (16:45)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Stadio Comunale Ettore Giardiniero</t>
+          <t>Unipol Domus</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1007,34 +1007,34 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>20:45 (16:45)</t>
+          <t>12:30 (08:30)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Unipol Domus</t>
+          <t>Stadio Comunale Luigi Ferraris</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1063,24 +1063,24 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12:30 (08:30)</t>
+          <t>15:00 (11:00)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Stadio Comunale Luigi Ferraris</t>
+          <t>New Balance Arena</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1109,24 +1109,24 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15:00 (11:00)</t>
+          <t>18:00 (14:00)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>New Balance Arena</t>
+          <t>Stadio Giuseppe Meazza</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1155,24 +1155,24 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18:00 (14:00)</t>
+          <t>20:45 (16:45)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Meazza</t>
+          <t>Stadio Olimpico</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1191,34 +1191,34 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>20:45 (16:45)</t>
+          <t>18:30 (14:30)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Stadio Olimpico</t>
+          <t>Stadio Artemio Franchi</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -1247,24 +1247,24 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>18:30 (14:30)</t>
+          <t>20:45 (16:45)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Stadio Artemio Franchi</t>
+          <t>Stadio Renato Dall'Ara</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1276,63 +1276,63 @@
       <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>20:45 (16:45)</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Bologna</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Udinese</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Stadio Renato Dall'Ara</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Stadio Ennio Tardini</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1343,34 +1343,34 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>20:45 (16:45)</t>
+          <t>15:00 (11:00)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Stadio Ennio Tardini</t>
+          <t>Stadio Giuseppe Sinigaglia</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -1399,24 +1399,24 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15:00 (11:00)</t>
+          <t>18:00 (14:00)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Sinigaglia</t>
+          <t>Stadio Marc'Antonio Bentegodi</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -1445,24 +1445,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>18:00 (14:00)</t>
+          <t>20:45 (16:45)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Stadio Marc'Antonio Bentegodi</t>
+          <t>Stadio Giuseppe Meazza</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -1481,34 +1481,34 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>20:45 (16:45)</t>
+          <t>12:30 (08:30)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Meazza</t>
+          <t>Stadio Giovanni Zini</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -1537,24 +1537,24 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12:30 (08:30)</t>
+          <t>15:00 (11:00)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Stadio Giovanni Zini</t>
+          <t>Mapei Stadium - Città del Tricolore</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -1583,24 +1583,24 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15:00 (11:00)</t>
+          <t>18:00 (14:00)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Mapei Stadium - Città del Tricolore</t>
+          <t>Stadio Olimpico Grande Torino</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -1629,24 +1629,24 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>18:00 (14:00)</t>
+          <t>20:45 (16:45)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Stadio Olimpico Grande Torino</t>
+          <t>Stadio Olimpico</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -1665,34 +1665,34 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>20:45 (16:45)</t>
+          <t>18:30 (14:30)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Stadio Olimpico</t>
+          <t>Arena Garibaldi - Stadio Romeo Anconetan...</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -1721,24 +1721,24 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>18:30 (14:30)</t>
+          <t>20:45 (16:45)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Arena Garibaldi - Stadio Romeo Anconetan...</t>
+          <t>Bluenergy Stadium</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -1750,63 +1750,59 @@
       <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2026-03-02</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>20:45 (16:45)</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Udinese</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Fiorentina</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Bluenergy Stadium</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2026-03-08</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Stadio Olimpico</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1828,19 +1824,19 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Stadio Olimpico</t>
+          <t>Stadio Comunale Luigi Ferraris</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -1870,19 +1866,19 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Stadio Comunale Luigi Ferraris</t>
+          <t>Stadio Comunale Ettore Giardiniero</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -1912,19 +1908,19 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Stadio Comunale Ettore Giardiniero</t>
+          <t>Stadio Renato Dall'Ara</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -1954,19 +1950,19 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Stadio Renato Dall'Ara</t>
+          <t>Stadio Giuseppe Meazza</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -1996,19 +1992,19 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Meazza</t>
+          <t>Unipol Domus</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2038,19 +2034,19 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Unipol Domus</t>
+          <t>Stadio Diego Armando Maradona</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2080,19 +2076,19 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Stadio Diego Armando Maradona</t>
+          <t>Allianz Stadium</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -2122,19 +2118,19 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Allianz Stadium</t>
+          <t>New Balance Arena</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -2164,19 +2160,19 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>New Balance Arena</t>
+          <t>Stadio Artemio Franchi</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -2188,59 +2184,59 @@
       <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2026-03-08</t>
-        </is>
-      </c>
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Fiorentina</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Parma</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Stadio Artemio Franchi</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2026-03-15</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Stadio Diego Armando Maradona</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -2262,19 +2258,19 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Stadio Diego Armando Maradona</t>
+          <t>Stadio Giuseppe Meazza</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -2304,19 +2300,19 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Meazza</t>
+          <t>Arena Garibaldi - Stadio Romeo Anconetan...</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -2346,19 +2342,19 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Arena Garibaldi - Stadio Romeo Anconetan...</t>
+          <t>Stadio Giovanni Zini</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -2388,19 +2384,19 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Stadio Giovanni Zini</t>
+          <t>Stadio Marc'Antonio Bentegodi</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -2430,19 +2426,19 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Stadio Marc'Antonio Bentegodi</t>
+          <t>Mapei Stadium - Città del Tricolore</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -2472,19 +2468,19 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Mapei Stadium - Città del Tricolore</t>
+          <t>Stadio Giuseppe Sinigaglia</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -2514,19 +2510,19 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Sinigaglia</t>
+          <t>Stadio Olimpico Grande Torino</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -2556,19 +2552,19 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Stadio Olimpico Grande Torino</t>
+          <t>Stadio Olimpico</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -2598,19 +2594,19 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Stadio Olimpico</t>
+          <t>Bluenergy Stadium</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -2622,59 +2618,59 @@
       <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2026-03-15</t>
-        </is>
-      </c>
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2026-03-22</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>Udinese</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Bluenergy Stadium</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Stadio Comunale Luigi Ferraris</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -2696,19 +2692,19 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Stadio Comunale Luigi Ferraris</t>
+          <t>Stadio Artemio Franchi</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -2738,19 +2734,19 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Stadio Artemio Franchi</t>
+          <t>Stadio Giuseppe Sinigaglia</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -2780,19 +2776,19 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Sinigaglia</t>
+          <t>Stadio Olimpico</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -2822,19 +2818,19 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Stadio Olimpico</t>
+          <t>Stadio Giuseppe Meazza</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -2864,19 +2860,19 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Meazza</t>
+          <t>Stadio Renato Dall'Ara</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -2906,19 +2902,19 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Stadio Renato Dall'Ara</t>
+          <t>Allianz Stadium</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -2948,19 +2944,19 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Allianz Stadium</t>
+          <t>Unipol Domus</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -2990,19 +2986,19 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Unipol Domus</t>
+          <t>Stadio Ennio Tardini</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -3032,19 +3028,19 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Stadio Ennio Tardini</t>
+          <t>New Balance Arena</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -3056,59 +3052,59 @@
       <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2026-03-22</t>
-        </is>
-      </c>
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Hellas Verona</t>
-        </is>
-      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>New Balance Arena</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2026-04-04</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Stadio Diego Armando Maradona</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -3130,19 +3126,19 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Stadio Diego Armando Maradona</t>
+          <t>Arena Garibaldi - Stadio Romeo Anconetan...</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -3172,19 +3168,19 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Arena Garibaldi - Stadio Romeo Anconetan...</t>
+          <t>Bluenergy Stadium</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -3214,19 +3210,19 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Bluenergy Stadium</t>
+          <t>Stadio Giuseppe Meazza</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -3256,19 +3252,19 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Meazza</t>
+          <t>Stadio Marc'Antonio Bentegodi</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -3298,19 +3294,19 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Stadio Marc'Antonio Bentegodi</t>
+          <t>Stadio Giovanni Zini</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -3340,19 +3336,19 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Stadio Giovanni Zini</t>
+          <t>Stadio Comunale Ettore Giardiniero</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -3382,19 +3378,19 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Stadio Comunale Ettore Giardiniero</t>
+          <t>Mapei Stadium - Città del Tricolore</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -3424,19 +3420,19 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Mapei Stadium - Città del Tricolore</t>
+          <t>Allianz Stadium</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -3466,19 +3462,19 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Allianz Stadium</t>
+          <t>Stadio Olimpico</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -3490,59 +3486,59 @@
       <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Sat</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>2026-04-04</t>
-        </is>
-      </c>
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Lazio</t>
-        </is>
-      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Parma</t>
-        </is>
-      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2026-04-12</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
         <is>
           <t>Stadio Olimpico</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3564,19 +3560,19 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Stadio Olimpico</t>
+          <t>Stadio Ennio Tardini</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -3606,19 +3602,19 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Stadio Ennio Tardini</t>
+          <t>Stadio Artemio Franchi</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -3648,19 +3644,19 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Stadio Artemio Franchi</t>
+          <t>Stadio Giuseppe Sinigaglia</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -3690,19 +3686,19 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Sinigaglia</t>
+          <t>Stadio Renato Dall'Ara</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -3732,19 +3728,19 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Stadio Renato Dall'Ara</t>
+          <t>Stadio Olimpico Grande Torino</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -3774,19 +3770,19 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Stadio Olimpico Grande Torino</t>
+          <t>Unipol Domus</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -3816,19 +3812,19 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Unipol Domus</t>
+          <t>Stadio Giuseppe Meazza</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -3858,19 +3854,19 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Meazza</t>
+          <t>Stadio Comunale Luigi Ferraris</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -3900,19 +3896,19 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Stadio Comunale Luigi Ferraris</t>
+          <t>New Balance Arena</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -3924,59 +3920,59 @@
       <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2026-04-12</t>
-        </is>
-      </c>
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>New Balance Arena</t>
-        </is>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr"/>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2026-04-19</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Stadio Marc'Antonio Bentegodi</t>
+        </is>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -3998,19 +3994,19 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Stadio Marc'Antonio Bentegodi</t>
+          <t>Allianz Stadium</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -4040,19 +4036,19 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Allianz Stadium</t>
+          <t>Stadio Olimpico</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -4082,19 +4078,19 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Stadio Olimpico</t>
+          <t>Stadio Giuseppe Meazza</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -4124,19 +4120,19 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Meazza</t>
+          <t>Arena Garibaldi - Stadio Romeo Anconetan...</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -4166,19 +4162,19 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Arena Garibaldi - Stadio Romeo Anconetan...</t>
+          <t>Stadio Comunale Ettore Giardiniero</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -4208,19 +4204,19 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Stadio Comunale Ettore Giardiniero</t>
+          <t>Bluenergy Stadium</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -4250,19 +4246,19 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Bluenergy Stadium</t>
+          <t>Mapei Stadium - Città del Tricolore</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -4292,19 +4288,19 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Mapei Stadium - Città del Tricolore</t>
+          <t>Stadio Diego Armando Maradona</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -4334,19 +4330,19 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Stadio Diego Armando Maradona</t>
+          <t>Stadio Giovanni Zini</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -4358,59 +4354,59 @@
       <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>2026-04-19</t>
-        </is>
-      </c>
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Cremonese</t>
-        </is>
-      </c>
+      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Stadio Giovanni Zini</t>
-        </is>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr"/>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2026-04-26</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Stadio Comunale Luigi Ferraris</t>
+        </is>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -4432,19 +4428,19 @@
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Stadio Comunale Luigi Ferraris</t>
+          <t>Stadio Olimpico</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -4474,19 +4470,19 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Stadio Olimpico</t>
+          <t>Stadio Marc'Antonio Bentegodi</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -4516,19 +4512,19 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Stadio Marc'Antonio Bentegodi</t>
+          <t>Stadio Ennio Tardini</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -4558,19 +4554,19 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Stadio Ennio Tardini</t>
+          <t>Stadio Renato Dall'Ara</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -4600,19 +4596,19 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Stadio Renato Dall'Ara</t>
+          <t>Stadio Olimpico Grande Torino</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -4642,19 +4638,19 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Stadio Olimpico Grande Torino</t>
+          <t>Stadio Diego Armando Maradona</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -4684,19 +4680,19 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Stadio Diego Armando Maradona</t>
+          <t>Stadio Giuseppe Meazza</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -4726,19 +4722,19 @@
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Meazza</t>
+          <t>Unipol Domus</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -4768,19 +4764,19 @@
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Unipol Domus</t>
+          <t>Stadio Artemio Franchi</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -4792,59 +4788,59 @@
       <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>2026-04-26</t>
-        </is>
-      </c>
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Fiorentina</t>
-        </is>
-      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Sassuolo</t>
-        </is>
-      </c>
+      <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>Stadio Artemio Franchi</t>
-        </is>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr"/>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2026-05-03</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Allianz Stadium</t>
+        </is>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -4866,19 +4862,19 @@
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Allianz Stadium</t>
+          <t>Stadio Giuseppe Sinigaglia</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -4908,19 +4904,19 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Sinigaglia</t>
+          <t>Stadio Giovanni Zini</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -4950,19 +4946,19 @@
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Stadio Giovanni Zini</t>
+          <t>Stadio Olimpico</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -4992,19 +4988,19 @@
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Stadio Olimpico</t>
+          <t>Bluenergy Stadium</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -5034,19 +5030,19 @@
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Bluenergy Stadium</t>
+          <t>New Balance Arena</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -5076,19 +5072,19 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>New Balance Arena</t>
+          <t>Mapei Stadium - Città del Tricolore</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -5118,19 +5114,19 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Mapei Stadium - Città del Tricolore</t>
+          <t>Stadio Giuseppe Meazza</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -5160,19 +5156,19 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Meazza</t>
+          <t>Stadio Renato Dall'Ara</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -5202,19 +5198,19 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Stadio Renato Dall'Ara</t>
+          <t>Arena Garibaldi - Stadio Romeo Anconetan...</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -5226,59 +5222,59 @@
       <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>2026-05-03</t>
-        </is>
-      </c>
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Pisa</t>
-        </is>
-      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Lecce</t>
-        </is>
-      </c>
+      <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>Arena Garibaldi - Stadio Romeo Anconetan...</t>
-        </is>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr"/>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2026-05-10</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
       <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Stadio Ennio Tardini</t>
+        </is>
+      </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5300,19 +5296,19 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Stadio Ennio Tardini</t>
+          <t>Stadio Giuseppe Meazza</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -5342,19 +5338,19 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Meazza</t>
+          <t>Stadio Artemio Franchi</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -5384,19 +5380,19 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Stadio Artemio Franchi</t>
+          <t>Stadio Giovanni Zini</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -5426,19 +5422,19 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Stadio Giovanni Zini</t>
+          <t>Stadio Marc'Antonio Bentegodi</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -5468,19 +5464,19 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Stadio Marc'Antonio Bentegodi</t>
+          <t>Stadio Olimpico</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -5510,19 +5506,19 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Stadio Olimpico</t>
+          <t>Stadio Comunale Ettore Giardiniero</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -5552,19 +5548,19 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Stadio Comunale Ettore Giardiniero</t>
+          <t>Stadio Olimpico Grande Torino</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -5594,19 +5590,19 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Stadio Olimpico Grande Torino</t>
+          <t>Unipol Domus</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -5636,19 +5632,19 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Unipol Domus</t>
+          <t>Stadio Diego Armando Maradona</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -5660,59 +5656,59 @@
       <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>2026-05-10</t>
-        </is>
-      </c>
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
+      <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>Bologna</t>
-        </is>
-      </c>
+      <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>Stadio Diego Armando Maradona</t>
-        </is>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr"/>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2026-05-17</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
       <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Stadio Olimpico</t>
+        </is>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -5734,19 +5730,19 @@
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Stadio Olimpico</t>
+          <t>Arena Garibaldi - Stadio Romeo Anconetan...</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -5776,19 +5772,19 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Arena Garibaldi - Stadio Romeo Anconetan...</t>
+          <t>Stadio Giuseppe Sinigaglia</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -5818,19 +5814,19 @@
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Sinigaglia</t>
+          <t>Mapei Stadium - Città del Tricolore</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -5860,19 +5856,19 @@
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Mapei Stadium - Città del Tricolore</t>
+          <t>Bluenergy Stadium</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -5902,19 +5898,19 @@
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Bluenergy Stadium</t>
+          <t>Stadio Giuseppe Meazza</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -5944,19 +5940,19 @@
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Meazza</t>
+          <t>Stadio Comunale Luigi Ferraris</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -5986,19 +5982,19 @@
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Stadio Comunale Luigi Ferraris</t>
+          <t>Unipol Domus</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -6028,19 +6024,19 @@
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Unipol Domus</t>
+          <t>New Balance Arena</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -6070,19 +6066,19 @@
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>New Balance Arena</t>
+          <t>Allianz Stadium</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -6094,59 +6090,59 @@
       <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>2026-05-17</t>
-        </is>
-      </c>
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
+      <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr">
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2026-05-24</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
         <is>
           <t>Fiorentina</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>Allianz Stadium</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr"/>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
       <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Stadio Artemio Franchi</t>
+        </is>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
@@ -6168,19 +6164,19 @@
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Stadio Artemio Franchi</t>
+          <t>Stadio Giuseppe Meazza</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -6210,19 +6206,19 @@
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Stadio Giuseppe Meazza</t>
+          <t>Stadio Diego Armando Maradona</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -6252,19 +6248,19 @@
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Stadio Diego Armando Maradona</t>
+          <t>Stadio Ennio Tardini</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -6294,19 +6290,19 @@
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Stadio Ennio Tardini</t>
+          <t>Stadio Comunale Ettore Giardiniero</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -6336,19 +6332,19 @@
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Stadio Comunale Ettore Giardiniero</t>
+          <t>Stadio Giovanni Zini</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -6378,19 +6374,19 @@
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Stadio Giovanni Zini</t>
+          <t>Stadio Olimpico Grande Torino</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -6420,19 +6416,19 @@
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Stadio Olimpico Grande Torino</t>
+          <t>Stadio Olimpico</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -6462,19 +6458,19 @@
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Stadio Olimpico</t>
+          <t>Stadio Marc'Antonio Bentegodi</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -6504,19 +6500,19 @@
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Stadio Marc'Antonio Bentegodi</t>
+          <t>Stadio Renato Dall'Ara</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -6526,48 +6522,6 @@
         </is>
       </c>
       <c r="L169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>2026-05-24</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Bologna</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>Inter</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>Stadio Renato Dall'Ara</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
